--- a/MOEA/Cost_excel_Jack.xlsx
+++ b/MOEA/Cost_excel_Jack.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Desktop\code_running\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariec\Documents\GitHub\BETO\MOEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DC1AB-AC0D-4366-9CA4-F3EDF96BE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5A5AB-CDB8-4ADD-8C40-4A6E717D94B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,19 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +701,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,22 +765,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Bad 2" xfId="10" xr:uid="{6935D546-8D6C-4827-8EE9-829CABFEF21C}"/>
@@ -1088,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25:O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1142,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4">
@@ -1211,7 +1186,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4">
@@ -1254,7 +1229,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5">
@@ -1269,7 +1244,7 @@
       <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="32">
@@ -1294,7 +1269,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4">
@@ -1312,7 +1287,7 @@
       <c r="G6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="29">
@@ -1351,7 +1326,7 @@
       <c r="G7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="30" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="29">
@@ -1376,7 +1351,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4">
@@ -1394,7 +1369,7 @@
       <c r="G8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="30" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="29">
@@ -1419,7 +1394,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4">
@@ -1437,7 +1412,7 @@
       <c r="G9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="30" t="s">
         <v>26</v>
       </c>
       <c r="L9" s="29">
@@ -1459,7 +1434,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="4">
@@ -1477,7 +1452,7 @@
       <c r="G10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="30" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="29">
@@ -1502,7 +1477,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="4">
@@ -1545,7 +1520,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4">
@@ -1563,7 +1538,7 @@
       <c r="G12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="30" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="29">
@@ -1606,7 +1581,7 @@
       <c r="G13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="30" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="29">
@@ -1620,7 +1595,7 @@
       <c r="P13">
         <v>12</v>
       </c>
-      <c r="Q13" s="40" t="s">
+      <c r="Q13" s="15" t="s">
         <v>80</v>
       </c>
       <c r="R13" t="s">
@@ -1711,7 +1686,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4">
@@ -1726,7 +1701,7 @@
       <c r="F16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="30" t="s">
         <v>55</v>
       </c>
       <c r="L16" s="29">
@@ -1751,7 +1726,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4">
@@ -1766,7 +1741,7 @@
       <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="30" t="s">
         <v>44</v>
       </c>
       <c r="L17" s="29">
@@ -1791,7 +1766,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="3">
@@ -1806,7 +1781,7 @@
       <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="29">
@@ -1831,7 +1806,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3">
@@ -1846,7 +1821,7 @@
       <c r="F19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="29">
@@ -1871,7 +1846,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4">
@@ -1886,7 +1861,7 @@
       <c r="F20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="30" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="29">
@@ -1911,7 +1886,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="4">
